--- a/data/model/nBerkovich_r_quad.xlsx
+++ b/data/model/nBerkovich_r_quad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\GitHub\NN_TiAlTa\data\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/GitHub/NN_TiAlTa/data/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D91F2-A0B4-4E25-88F1-C9EF1E4422BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DE471-7724-A04E-B5E5-036A678BBE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="13620" xr2:uid="{22A46240-1FAA-4683-91B8-CDEDEB32A322}"/>
+    <workbookView xWindow="13680" yWindow="2780" windowWidth="15040" windowHeight="13620" xr2:uid="{22A46240-1FAA-4683-91B8-CDEDEB32A322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,10 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,9 +104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +144,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +250,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1830E8A8-A2DA-40CF-AFFA-FCF2BEB6AEEF}">
-  <dimension ref="A1:DU159"/>
+  <dimension ref="A1:DT159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
-      <selection activeCell="DT8" sqref="DT8"/>
+    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
+      <selection activeCell="DL10" sqref="DL10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.22600000000000001</v>
       </c>
@@ -650,611 +660,611 @@
         <v>0.24829899999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A2">
         <f>0.001*B107/A107^2</f>
         <v>188.52447612146324</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <f>(B109-B110)/(A109-A110)</f>
         <v>190929.20353982199</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <f>C159/C107</f>
         <v>0.48979145797286228</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <f>0.001*G107/F107^2</f>
         <v>193.86533452715364</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <f>(G109-G110)/(F109-F110)</f>
         <v>209957.62711864398</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <f>H159/H107</f>
         <v>0.48889069088550108</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <f>0.001*L107/K107^2</f>
         <v>199.46356815771384</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <f>(L109-L110)/(K109-K110)</f>
         <v>227789.04665314447</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <f>M159/M107</f>
         <v>0.48798233548106856</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <f>0.001*Q107/P107^2</f>
         <v>204.83633522105899</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <f>(Q109-Q110)/(P109-P110)</f>
         <v>246289.06249999936</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <f>R159/R107</f>
         <v>0.48735922330097087</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <f>0.001*V107/U107^2</f>
         <v>183.83896662261606</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <f>(V109-V110)/(U109-U110)</f>
         <v>177083.33333333372</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <f>W159/W107</f>
         <v>0.48990436794790415</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2">
         <f>0.001*AA107/Z107^2</f>
         <v>179.6390714326887</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2">
         <f>(AA109-AA110)/(Z109-Z110)</f>
         <v>158762.1359223297</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2">
         <f>AB159/AB107</f>
         <v>0.48855920969210725</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2">
         <f>0.001*AF107/AE107^2</f>
         <v>176.44335248638259</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2">
         <f>(AF109-AF110)/(AE109-AE110)</f>
         <v>145498.72122762151</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2">
         <f>AG159/AG107</f>
         <v>0.48634647923988034</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2">
         <f>0.001*AK107/AJ107^2</f>
         <v>173.53210368746142</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2">
         <f>(AK109-AK110)/(AJ109-AJ110)</f>
         <v>140322.58064516124</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2">
         <f>AL159/AL107</f>
         <v>0.48266168202290194</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2">
         <f>0.001*AP107/AO107^2</f>
         <v>171.83838894819826</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2">
         <f>(AP109-AP110)/(AO109-AO110)</f>
         <v>112678.06267806314</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2">
         <f>AQ159/AQ107</f>
         <v>0.47690480968626664</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2">
         <f>0.001*AU107/AT107^2</f>
         <v>172.31431820258845</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2">
         <f>(AU109-AU110)/(AT109-AT110)</f>
         <v>107499.99999999961</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AV2">
         <f>AV159/AV107</f>
         <v>0.4711395588067207</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2">
         <f>0.001*AZ107/AY107^2</f>
         <v>173.39876677012518</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2">
         <f>(AZ109-AZ110)/(AY109-AY110)</f>
         <v>104983.92282958288</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2">
         <f>BA159/BA107</f>
         <v>0.46284050100726987</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2">
         <f>0.001*BE107/BD107^2</f>
         <v>174.88906472376613</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BE2">
         <f>(BE109-BE110)/(BD109-BD110)</f>
         <v>97773.972602739523</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BF2">
         <f>BF159/BF107</f>
         <v>0.45272814577067905</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BI2">
         <f>0.001*BJ107/BI107^2</f>
         <v>177.06195823175923</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BJ2">
         <f>(BJ109-BJ110)/(BI109-BI110)</f>
         <v>90698.529411764626</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BK2">
         <f>BK159/BK107</f>
         <v>0.43966733278476555</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="BN2">
         <f>0.001*BO107/BN107^2</f>
         <v>175.66830587249919</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BO2">
         <f>(BO109-BO110)/(BN109-BN110)</f>
         <v>94929.078014185026</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="BP2">
         <f>BP159/BP107</f>
         <v>0.44625957945836853</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="BS2">
         <f>0.001*BT107/BS107^2</f>
         <v>188.35490623264559</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="BT2">
         <f>(BT109-BT110)/(BS109-BS110)</f>
         <v>69696.969696969507</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="BU2">
         <f>BU159/BU107</f>
         <v>0.41761073166741647</v>
       </c>
-      <c r="BX2" s="2">
+      <c r="BX2">
         <f>0.001*BY107/BX107^2</f>
         <v>181.99430465457476</v>
       </c>
-      <c r="BY2" s="2">
+      <c r="BY2">
         <f>(BY109-BY110)/(BX109-BX110)</f>
         <v>74722.222222222452</v>
       </c>
-      <c r="BZ2" s="2">
+      <c r="BZ2">
         <f>BZ158/BZ107</f>
         <v>0.42711852720126869</v>
       </c>
-      <c r="CC2" s="2">
+      <c r="CC2">
         <f>0.001*CD107/CC107^2</f>
         <v>185.13859958340012</v>
       </c>
-      <c r="CD2" s="2">
+      <c r="CD2">
         <f>(CD109-CD110)/(CC109-CC110)</f>
         <v>72614.10788381756</v>
       </c>
-      <c r="CE2" s="2">
+      <c r="CE2">
         <f>CE158/CE107</f>
         <v>0.42210056620045744</v>
       </c>
-      <c r="CH2" s="2">
+      <c r="CH2">
         <f>0.001*CI107/CH107^2</f>
         <v>179.24099108368267</v>
       </c>
-      <c r="CI2" s="2">
+      <c r="CI2">
         <f>(CI109-CI110)/(CH109-CH110)</f>
         <v>75305.343511450934</v>
       </c>
-      <c r="CJ2" s="2">
+      <c r="CJ2">
         <f>CJ158/CJ107</f>
         <v>0.43337892426603902</v>
       </c>
-      <c r="CM2" s="2">
+      <c r="CM2">
         <f>0.001*CN107/CM107^2</f>
         <v>173.89503557256515</v>
       </c>
-      <c r="CN2" s="2">
+      <c r="CN2">
         <f>(CN109-CN110)/(CM109-CM110)</f>
         <v>98438.538205979712</v>
       </c>
-      <c r="CO2" s="2">
+      <c r="CO2">
         <f>CO158/CO107</f>
         <v>0.45799661717722234</v>
       </c>
-      <c r="CR2" s="2">
+      <c r="CR2">
         <f>0.001*CS107/CR107^2</f>
         <v>172.68177132224741</v>
       </c>
-      <c r="CS2" s="2">
+      <c r="CS2">
         <f>(CS109-CS110)/(CR109-CR110)</f>
         <v>107507.78816199419</v>
       </c>
-      <c r="CT2" s="2">
+      <c r="CT2">
         <f>CT158/CT107</f>
         <v>0.46739374629822517</v>
       </c>
-      <c r="CW2" s="2">
+      <c r="CW2">
         <f>0.001*CX107/CW107^2</f>
         <v>172.34342718538383</v>
       </c>
-      <c r="CX2" s="2">
+      <c r="CX2">
         <f>(CX109-CX110)/(CW109-CW110)</f>
         <v>109590.64327485365</v>
       </c>
-      <c r="CY2" s="2">
+      <c r="CY2">
         <f>CY158/CY107</f>
         <v>0.4741219303255283</v>
       </c>
-      <c r="DB2" s="2">
+      <c r="DB2">
         <f>0.001*DC107/DB107^2</f>
         <v>172.3107773145675</v>
       </c>
-      <c r="DC2" s="2">
+      <c r="DC2">
         <f>(DC109-DC110)/(DB109-DB110)</f>
         <v>130941.82825484753</v>
       </c>
-      <c r="DD2" s="2">
+      <c r="DD2">
         <f>DD158/DD107</f>
         <v>0.47994669175290067</v>
       </c>
-      <c r="DG2" s="2">
+      <c r="DG2">
         <f>0.001*DH107/DG107^2</f>
         <v>174.89626157538885</v>
       </c>
-      <c r="DH2" s="2">
+      <c r="DH2">
         <f>(DH109-DH110)/(DG109-DG110)</f>
         <v>140314.13612565381</v>
       </c>
-      <c r="DI2" s="2">
+      <c r="DI2">
         <f>DI158/DI107</f>
         <v>0.48451156101338644</v>
       </c>
-      <c r="DL2" s="2">
+      <c r="DL2">
         <f>0.001*DM107/DL107^2</f>
         <v>177.8054921781679</v>
       </c>
-      <c r="DM2" s="2">
+      <c r="DM2">
         <f>(DM109-DM110)/(DL109-DL110)</f>
         <v>155223.88059701509</v>
       </c>
-      <c r="DN2" s="2">
+      <c r="DN2">
         <f>DN158/DN107</f>
         <v>0.48763367755687037</v>
       </c>
-      <c r="DQ2" s="2">
+      <c r="DQ2">
         <f>0.001*DR107/DQ107^2</f>
         <v>181.60600476500417</v>
       </c>
-      <c r="DR2" s="2">
+      <c r="DR2">
         <f>(DR109-DR110)/(DQ109-DQ110)</f>
         <v>169905.21327014212</v>
       </c>
-      <c r="DS2" s="2">
+      <c r="DS2">
         <f>DS158/DS107</f>
         <v>0.48950585782690365</v>
       </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A3">
         <f>MAX(A5:A159)</f>
         <v>0.26306000000000002</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <f>MAX(B5:B159)</f>
         <v>13046</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <f>MAX(C5:C159)</f>
         <v>1098.2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <f>MAX(F5:F159)</f>
         <v>0.27306999999999998</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <f>MAX(G5:G159)</f>
         <v>14457</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <f>MAX(H5:H159)</f>
         <v>1233.3</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <f>MAX(K5:K159)</f>
         <v>0.28309000000000001</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <f>MAX(L5:L159)</f>
         <v>15986</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <f>MAX(M5:M159)</f>
         <v>1381.4</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <f>MAX(P5:P159)</f>
         <v>0.29310000000000003</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <f>MAX(Q5:Q159)</f>
         <v>17598</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <f>MAX(R5:R159)</f>
         <v>1545</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <f>MAX(U5:U159)</f>
         <v>0.25305</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <f>MAX(V5:V159)</f>
         <v>11773</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <f>MAX(W5:W159)</f>
         <v>976.72</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3">
         <f>MAX(Z5:Z159)</f>
         <v>0.24304000000000001</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3">
         <f>MAX(AA5:AA159)</f>
         <v>10612</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3">
         <f>MAX(AB5:AB159)</f>
         <v>867.51</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3">
         <f>MAX(AE5:AE159)</f>
         <v>0.23302999999999999</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3">
         <f>MAX(AF5:AF159)</f>
         <v>9581.7999999999993</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3">
         <f>MAX(AG5:AG159)</f>
         <v>768.3</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3">
         <f>MAX(AJ5:AJ159)</f>
         <v>0.22303000000000001</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3">
         <f>MAX(AK5:AK159)</f>
         <v>8632.4</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3">
         <f>MAX(AL5:AL159)</f>
         <v>679.47</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3">
         <f>MAX(AO5:AO159)</f>
         <v>0.21301999999999999</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3">
         <f>MAX(AP5:AP159)</f>
         <v>7800.9</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3">
         <f>MAX(AQ5:AQ159)</f>
         <v>597.99</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3">
         <f>MAX(AT5:AT159)</f>
         <v>0.20302000000000001</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3">
         <f>MAX(AU5:AU159)</f>
         <v>7102.4</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3">
         <f>MAX(AV5:AV159)</f>
         <v>524.94000000000005</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3">
         <f>MAX(AY5:AY159)</f>
         <v>0.19300999999999999</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="AZ3">
         <f>MAX(AZ5:AZ159)</f>
         <v>6459.7</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BA3">
         <f>MAX(BA5:BA159)</f>
         <v>456.68</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BD3">
         <f>MAX(BD5:BD159)</f>
         <v>0.18301000000000001</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BE3">
         <f>MAX(BE5:BE159)</f>
         <v>5857.8</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BF3">
         <f>MAX(BF5:BF159)</f>
         <v>395.7</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BI3">
         <f>MAX(BI5:BI159)</f>
         <v>0.17301</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BJ3">
         <f>MAX(BJ5:BJ159)</f>
         <v>5299.9</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BK3">
         <f>MAX(BK5:BK159)</f>
         <v>340.28</v>
       </c>
-      <c r="BN3" s="2">
+      <c r="BN3">
         <f>MAX(BN5:BN159)</f>
         <v>0.17801</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="BO3">
         <f>MAX(BO5:BO159)</f>
         <v>5566.9</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="BP3">
         <f>MAX(BP5:BP159)</f>
         <v>366.7</v>
       </c>
-      <c r="BS3" s="2">
+      <c r="BS3">
         <f>MAX(BS5:BS159)</f>
         <v>0.153</v>
       </c>
-      <c r="BT3" s="2">
+      <c r="BT3">
         <f>MAX(BT5:BT159)</f>
         <v>4409.3999999999996</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="BU3">
         <f>MAX(BU5:BU159)</f>
         <v>244.52</v>
       </c>
-      <c r="BX3" s="2">
+      <c r="BX3">
         <f>MAX(BX5:BX159)</f>
         <v>0.16300999999999999</v>
       </c>
-      <c r="BY3" s="2">
+      <c r="BY3">
         <f>MAX(BY5:BY159)</f>
         <v>4836.1000000000004</v>
       </c>
-      <c r="BZ3" s="2">
+      <c r="BZ3">
         <f>MAX(BZ5:BZ159)</f>
         <v>290.08</v>
       </c>
-      <c r="CC3" s="2">
+      <c r="CC3">
         <f>MAX(CC5:CC159)</f>
         <v>0.158</v>
       </c>
-      <c r="CD3" s="2">
+      <c r="CD3">
         <f>MAX(CD5:CD159)</f>
         <v>4621.8</v>
       </c>
-      <c r="CE3" s="2">
+      <c r="CE3">
         <f>MAX(CE5:CE159)</f>
         <v>266.69</v>
       </c>
-      <c r="CH3" s="2">
+      <c r="CH3">
         <f>MAX(CH5:CH159)</f>
         <v>0.16800999999999999</v>
       </c>
-      <c r="CI3" s="2">
+      <c r="CI3">
         <f>MAX(CI5:CI159)</f>
         <v>5059.8999999999996</v>
       </c>
-      <c r="CJ3" s="2">
+      <c r="CJ3">
         <f>MAX(CJ5:CJ159)</f>
         <v>314.39999999999998</v>
       </c>
-      <c r="CM3" s="2">
+      <c r="CM3">
         <f>MAX(CM5:CM159)</f>
         <v>0.18801000000000001</v>
       </c>
-      <c r="CN3" s="2">
+      <c r="CN3">
         <f>MAX(CN5:CN159)</f>
         <v>6146.8</v>
       </c>
-      <c r="CO3" s="2">
+      <c r="CO3">
         <f>MAX(CO5:CO159)</f>
         <v>425.68</v>
       </c>
-      <c r="CR3" s="2">
+      <c r="CR3">
         <f>MAX(CR5:CR159)</f>
         <v>0.19800999999999999</v>
       </c>
-      <c r="CS3" s="2">
+      <c r="CS3">
         <f>MAX(CS5:CS159)</f>
         <v>6770.7</v>
       </c>
-      <c r="CT3" s="2">
+      <c r="CT3">
         <f>MAX(CT5:CT159)</f>
         <v>489.65</v>
       </c>
-      <c r="CW3" s="2">
+      <c r="CW3">
         <f>MAX(CW5:CW159)</f>
         <v>0.20802000000000001</v>
       </c>
-      <c r="CX3" s="2">
+      <c r="CX3">
         <f>MAX(CX5:CX159)</f>
         <v>7458</v>
       </c>
-      <c r="CY3" s="2">
+      <c r="CY3">
         <f>MAX(CY5:CY159)</f>
         <v>560.33000000000004</v>
       </c>
-      <c r="DB3" s="2">
+      <c r="DB3">
         <f>MAX(DB5:DB159)</f>
         <v>0.21801999999999999</v>
       </c>
-      <c r="DC3" s="2">
+      <c r="DC3">
         <f>MAX(DC5:DC159)</f>
         <v>8190.4</v>
       </c>
-      <c r="DD3" s="2">
+      <c r="DD3">
         <f>MAX(DD5:DD159)</f>
         <v>637.79999999999995</v>
       </c>
-      <c r="DG3" s="2">
+      <c r="DG3">
         <f>MAX(DG5:DG159)</f>
         <v>0.22803000000000001</v>
       </c>
-      <c r="DH3" s="2">
+      <c r="DH3">
         <f>MAX(DH5:DH159)</f>
         <v>9094.2999999999993</v>
       </c>
-      <c r="DI3" s="2">
+      <c r="DI3">
         <f>MAX(DI5:DI159)</f>
         <v>723.12</v>
       </c>
-      <c r="DL3" s="2">
+      <c r="DL3">
         <f>MAX(DL5:DL159)</f>
         <v>0.23804</v>
       </c>
-      <c r="DM3" s="2">
+      <c r="DM3">
         <f>MAX(DM5:DM159)</f>
         <v>10075</v>
       </c>
-      <c r="DN3" s="2">
+      <c r="DN3">
         <f>MAX(DN5:DN159)</f>
         <v>816.33</v>
       </c>
-      <c r="DQ3" s="2">
+      <c r="DQ3">
         <f>MAX(DQ5:DQ159)</f>
         <v>0.24804999999999999</v>
       </c>
-      <c r="DR3" s="2">
+      <c r="DR3">
         <f>MAX(DR5:DR159)</f>
         <v>11178</v>
       </c>
-      <c r="DS3" s="2">
+      <c r="DS3">
         <f>MAX(DS5:DS159)</f>
         <v>921.27</v>
       </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.63E-3</v>
       </c>
@@ -1602,7 +1612,7 @@
       <c r="R5" s="1">
         <v>5.4016999999999999E-24</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>0.11409999999999999</v>
       </c>
       <c r="U5" s="1">
@@ -1614,7 +1624,7 @@
       <c r="W5" s="1">
         <v>4.0273000000000001E-24</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5">
         <v>0.11409999999999999</v>
       </c>
       <c r="Z5" s="1">
@@ -1854,12 +1864,11 @@
       <c r="DS5" s="1">
         <v>3.8691E-24</v>
       </c>
-      <c r="DT5" s="2">
+      <c r="DT5">
         <v>0.11409999999999999</v>
       </c>
-      <c r="DU5" s="2"/>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5.2599999999999999E-3</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>0.22819999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7.8899999999999994E-3</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>0.34229999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1.052E-2</v>
       </c>
@@ -2765,7 +2774,7 @@
         <v>0.45639999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1.315E-2</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>0.57050000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1.5779999999999999E-2</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>0.68459999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.8409999999999999E-2</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>0.79869999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2.104E-2</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>0.91279999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2.367E-2</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>1.0268999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2.63E-2</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2.8930000000000001E-2</v>
       </c>
@@ -4879,7 +4888,7 @@
         <v>1.2551000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.1559999999999998E-2</v>
       </c>
@@ -5181,7 +5190,7 @@
         <v>1.3692</v>
       </c>
     </row>
-    <row r="17" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.4189999999999998E-2</v>
       </c>
@@ -5483,7 +5492,7 @@
         <v>1.4833000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.6819999999999999E-2</v>
       </c>
@@ -5785,7 +5794,7 @@
         <v>1.5973999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9449999999999999E-2</v>
       </c>
@@ -6087,7 +6096,7 @@
         <v>1.7115</v>
       </c>
     </row>
-    <row r="20" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4.2079999999999999E-2</v>
       </c>
@@ -6389,7 +6398,7 @@
         <v>1.8255999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4.471E-2</v>
       </c>
@@ -6691,7 +6700,7 @@
         <v>1.9397</v>
       </c>
     </row>
-    <row r="22" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4.734E-2</v>
       </c>
@@ -6993,7 +7002,7 @@
         <v>2.0537999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4.9970000000000001E-2</v>
       </c>
@@ -7295,7 +7304,7 @@
         <v>2.1678999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5.2600000000000001E-2</v>
       </c>
@@ -7597,7 +7606,7 @@
         <v>2.282</v>
       </c>
     </row>
-    <row r="25" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5.5230000000000001E-2</v>
       </c>
@@ -7899,7 +7908,7 @@
         <v>2.3961000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5.7860000000000002E-2</v>
       </c>
@@ -8201,7 +8210,7 @@
         <v>2.5102000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>6.0491000000000003E-2</v>
       </c>
@@ -8503,7 +8512,7 @@
         <v>2.6242999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6.3120999999999997E-2</v>
       </c>
@@ -8805,7 +8814,7 @@
         <v>2.7383999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>6.5752000000000005E-2</v>
       </c>
@@ -9107,7 +9116,7 @@
         <v>2.8525</v>
       </c>
     </row>
-    <row r="30" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6.8380999999999997E-2</v>
       </c>
@@ -9409,7 +9418,7 @@
         <v>2.9666000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>7.1012000000000006E-2</v>
       </c>
@@ -9711,7 +9720,7 @@
         <v>3.0807000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>7.3641999999999999E-2</v>
       </c>
@@ -10013,7 +10022,7 @@
         <v>3.1947999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>7.6272000000000006E-2</v>
       </c>
@@ -10315,7 +10324,7 @@
         <v>3.3089</v>
       </c>
     </row>
-    <row r="34" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>7.8903000000000001E-2</v>
       </c>
@@ -10617,7 +10626,7 @@
         <v>3.423</v>
       </c>
     </row>
-    <row r="35" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>8.1532999999999994E-2</v>
       </c>
@@ -10919,7 +10928,7 @@
         <v>3.5371000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>8.4163000000000002E-2</v>
       </c>
@@ -11221,7 +11230,7 @@
         <v>3.6511999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>8.6792999999999995E-2</v>
       </c>
@@ -11523,7 +11532,7 @@
         <v>3.7652999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>8.9423000000000002E-2</v>
       </c>
@@ -11825,7 +11834,7 @@
         <v>3.8794</v>
       </c>
     </row>
-    <row r="39" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>9.2053999999999997E-2</v>
       </c>
@@ -12127,7 +12136,7 @@
         <v>3.9935</v>
       </c>
     </row>
-    <row r="40" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>9.4684000000000004E-2</v>
       </c>
@@ -12429,7 +12438,7 @@
         <v>4.1075999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>9.7314999999999999E-2</v>
       </c>
@@ -12731,7 +12740,7 @@
         <v>4.2217000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>9.9945000000000006E-2</v>
       </c>
@@ -13033,7 +13042,7 @@
         <v>4.3357999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.10258</v>
       </c>
@@ -13335,7 +13344,7 @@
         <v>4.4499000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.1052</v>
       </c>
@@ -13637,7 +13646,7 @@
         <v>4.5640000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.10783</v>
       </c>
@@ -13939,7 +13948,7 @@
         <v>4.6780999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.11046</v>
       </c>
@@ -14241,7 +14250,7 @@
         <v>4.7922000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.11309</v>
       </c>
@@ -14543,7 +14552,7 @@
         <v>4.9062999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.11572</v>
       </c>
@@ -14845,7 +14854,7 @@
         <v>5.0204000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.11835</v>
       </c>
@@ -15147,7 +15156,7 @@
         <v>5.1345000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.12098</v>
       </c>
@@ -15449,7 +15458,7 @@
         <v>5.2485999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.12361</v>
       </c>
@@ -15751,7 +15760,7 @@
         <v>5.3627000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0.12623999999999999</v>
       </c>
@@ -16053,7 +16062,7 @@
         <v>5.4767999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.12887000000000001</v>
       </c>
@@ -16355,7 +16364,7 @@
         <v>5.5909000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.13150000000000001</v>
       </c>
@@ -16657,7 +16666,7 @@
         <v>5.7050000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.13413</v>
       </c>
@@ -16959,7 +16968,7 @@
         <v>5.8190999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0.13675999999999999</v>
       </c>
@@ -17261,7 +17270,7 @@
         <v>5.9332000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.13938999999999999</v>
       </c>
@@ -17563,7 +17572,7 @@
         <v>6.0472999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.14202000000000001</v>
       </c>
@@ -17865,7 +17874,7 @@
         <v>6.1614000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.14465</v>
       </c>
@@ -18167,7 +18176,7 @@
         <v>6.2755000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.14727999999999999</v>
       </c>
@@ -18469,7 +18478,7 @@
         <v>6.3895999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.14990999999999999</v>
       </c>
@@ -18771,7 +18780,7 @@
         <v>6.5037000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.15254000000000001</v>
       </c>
@@ -19073,7 +19082,7 @@
         <v>6.6177999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.15517</v>
       </c>
@@ -19375,7 +19384,7 @@
         <v>6.7319000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.1578</v>
       </c>
@@ -19677,7 +19686,7 @@
         <v>6.8460000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.16044</v>
       </c>
@@ -19979,7 +19988,7 @@
         <v>6.9600999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.16306999999999999</v>
       </c>
@@ -20281,7 +20290,7 @@
         <v>7.0742000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.16569999999999999</v>
       </c>
@@ -20583,7 +20592,7 @@
         <v>7.1882999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.16833000000000001</v>
       </c>
@@ -20885,7 +20894,7 @@
         <v>7.3023999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.17096</v>
       </c>
@@ -21187,7 +21196,7 @@
         <v>7.4165000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.17358999999999999</v>
       </c>
@@ -21489,7 +21498,7 @@
         <v>7.5305999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.17621999999999999</v>
       </c>
@@ -21791,7 +21800,7 @@
         <v>7.6447000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.17885000000000001</v>
       </c>
@@ -22093,7 +22102,7 @@
         <v>7.7587999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.18148</v>
       </c>
@@ -22395,7 +22404,7 @@
         <v>7.8728999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.18411</v>
       </c>
@@ -22697,7 +22706,7 @@
         <v>7.9870000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.18673999999999999</v>
       </c>
@@ -22999,7 +23008,7 @@
         <v>8.1011000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.18937000000000001</v>
       </c>
@@ -23301,7 +23310,7 @@
         <v>8.2151999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.192</v>
       </c>
@@ -23603,7 +23612,7 @@
         <v>8.3292999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.19463</v>
       </c>
@@ -23905,7 +23914,7 @@
         <v>8.4434000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.19725999999999999</v>
       </c>
@@ -24207,7 +24216,7 @@
         <v>8.5574999999999992</v>
       </c>
     </row>
-    <row r="80" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.19989000000000001</v>
       </c>
@@ -24509,7 +24518,7 @@
         <v>8.6715999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.20252999999999999</v>
       </c>
@@ -24811,7 +24820,7 @@
         <v>8.7857000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.20516000000000001</v>
       </c>
@@ -25113,7 +25122,7 @@
         <v>8.8998000000000008</v>
       </c>
     </row>
-    <row r="83" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.20779</v>
       </c>
@@ -25415,7 +25424,7 @@
         <v>9.0138999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.21042</v>
       </c>
@@ -25717,7 +25726,7 @@
         <v>9.1280000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.21304999999999999</v>
       </c>
@@ -26019,7 +26028,7 @@
         <v>9.2421000000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.21568000000000001</v>
       </c>
@@ -26321,7 +26330,7 @@
         <v>9.3561999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.21831</v>
       </c>
@@ -26623,7 +26632,7 @@
         <v>9.4702999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.22094</v>
       </c>
@@ -26925,7 +26934,7 @@
         <v>9.5844000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.22358</v>
       </c>
@@ -27227,7 +27236,7 @@
         <v>9.6984999999999992</v>
       </c>
     </row>
-    <row r="90" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.22620999999999999</v>
       </c>
@@ -27529,7 +27538,7 @@
         <v>9.8125999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.22883999999999999</v>
       </c>
@@ -27831,7 +27840,7 @@
         <v>9.9267000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.23147000000000001</v>
       </c>
@@ -28133,7 +28142,7 @@
         <v>10.041</v>
       </c>
     </row>
-    <row r="93" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.2341</v>
       </c>
@@ -28435,7 +28444,7 @@
         <v>10.154999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.23673</v>
       </c>
@@ -28737,7 +28746,7 @@
         <v>10.269</v>
       </c>
     </row>
-    <row r="95" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.23937</v>
       </c>
@@ -29039,7 +29048,7 @@
         <v>10.382999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.24199999999999999</v>
       </c>
@@ -29341,7 +29350,7 @@
         <v>10.497</v>
       </c>
     </row>
-    <row r="97" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.24462999999999999</v>
       </c>
@@ -29643,7 +29652,7 @@
         <v>10.611000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.24726000000000001</v>
       </c>
@@ -29945,7 +29954,7 @@
         <v>10.725</v>
       </c>
     </row>
-    <row r="99" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.24990000000000001</v>
       </c>
@@ -30247,7 +30256,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="100" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.25252999999999998</v>
       </c>
@@ -30549,7 +30558,7 @@
         <v>10.954000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.25516</v>
       </c>
@@ -30851,7 +30860,7 @@
         <v>11.068</v>
       </c>
     </row>
-    <row r="102" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.25779000000000002</v>
       </c>
@@ -31153,7 +31162,7 @@
         <v>11.182</v>
       </c>
     </row>
-    <row r="103" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.26042999999999999</v>
       </c>
@@ -31455,7 +31464,7 @@
         <v>11.295999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.26306000000000002</v>
       </c>
@@ -31757,7 +31766,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="105" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.26306000000000002</v>
       </c>
@@ -32059,7 +32068,7 @@
         <v>12.41</v>
       </c>
     </row>
-    <row r="106" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.26306000000000002</v>
       </c>
@@ -32361,7 +32370,7 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="107" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.26306000000000002</v>
       </c>
@@ -32663,7 +32672,7 @@
         <v>14.41</v>
       </c>
     </row>
-    <row r="108" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.26306000000000002</v>
       </c>
@@ -32965,7 +32974,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="109" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.26306000000000002</v>
       </c>
@@ -33267,7 +33276,7 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="110" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.25853999999999999</v>
       </c>
@@ -33569,7 +33578,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="111" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.25402000000000002</v>
       </c>
@@ -33871,7 +33880,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.2495</v>
       </c>
@@ -34173,7 +34182,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.24498</v>
       </c>
@@ -34475,7 +34484,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="114" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.24046000000000001</v>
       </c>
@@ -34777,7 +34786,7 @@
         <v>17.41</v>
       </c>
     </row>
-    <row r="115" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.23594999999999999</v>
       </c>
@@ -35079,7 +35088,7 @@
         <v>17.61</v>
       </c>
     </row>
-    <row r="116" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.23143</v>
       </c>
@@ -35381,7 +35390,7 @@
         <v>17.809999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.22691</v>
       </c>
@@ -35683,7 +35692,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.22239</v>
       </c>
@@ -35985,7 +35994,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="119" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.21787999999999999</v>
       </c>
@@ -36287,7 +36296,7 @@
         <v>18.41</v>
       </c>
     </row>
-    <row r="120" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.21335999999999999</v>
       </c>
@@ -36589,7 +36598,7 @@
         <v>18.61</v>
       </c>
     </row>
-    <row r="121" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.20884</v>
       </c>
@@ -36891,7 +36900,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.20433000000000001</v>
       </c>
@@ -37193,7 +37202,7 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.19980999999999999</v>
       </c>
@@ -37495,7 +37504,7 @@
         <v>19.21</v>
       </c>
     </row>
-    <row r="124" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.1953</v>
       </c>
@@ -37797,7 +37806,7 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="125" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.19078000000000001</v>
       </c>
@@ -38099,7 +38108,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="126" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.18626999999999999</v>
       </c>
@@ -38401,7 +38410,7 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.18174999999999999</v>
       </c>
@@ -38703,7 +38712,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.17724000000000001</v>
       </c>
@@ -39005,7 +39014,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="129" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.17272000000000001</v>
       </c>
@@ -39307,7 +39316,7 @@
         <v>20.41</v>
       </c>
     </row>
-    <row r="130" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.16821</v>
       </c>
@@ -39609,7 +39618,7 @@
         <v>20.61</v>
       </c>
     </row>
-    <row r="131" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.16369</v>
       </c>
@@ -39911,7 +39920,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="132" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.15917999999999999</v>
       </c>
@@ -40213,7 +40222,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="133" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.15467</v>
       </c>
@@ -40515,7 +40524,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="134" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.15015000000000001</v>
       </c>
@@ -40817,7 +40826,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="135" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.14563999999999999</v>
       </c>
@@ -41119,7 +41128,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="136" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.14112</v>
       </c>
@@ -41421,7 +41430,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="137" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.13661000000000001</v>
       </c>
@@ -41723,7 +41732,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="138" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.13209000000000001</v>
       </c>
@@ -42025,7 +42034,7 @@
         <v>22.21</v>
       </c>
     </row>
-    <row r="139" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.12758</v>
       </c>
@@ -42327,7 +42336,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="140" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.12307</v>
       </c>
@@ -42629,7 +42638,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="141" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.11855</v>
       </c>
@@ -42931,7 +42940,7 @@
         <v>22.81</v>
       </c>
     </row>
-    <row r="142" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.11497</v>
       </c>
@@ -43233,7 +43242,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="143" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.11497</v>
       </c>
@@ -43535,7 +43544,7 @@
         <v>23.21</v>
       </c>
     </row>
-    <row r="144" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.11497</v>
       </c>
@@ -43837,7 +43846,7 @@
         <v>23.41</v>
       </c>
     </row>
-    <row r="145" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.11497</v>
       </c>
@@ -44139,7 +44148,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="146" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0.11497</v>
       </c>
@@ -44441,7 +44450,7 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="147" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0.11497</v>
       </c>
@@ -44743,7 +44752,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="148" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0.11497</v>
       </c>
@@ -45045,7 +45054,7 @@
         <v>24.21</v>
       </c>
     </row>
-    <row r="149" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0.11497</v>
       </c>
@@ -45347,7 +45356,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="150" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0.11497</v>
       </c>
@@ -45649,7 +45658,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="151" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0.11497</v>
       </c>
@@ -45951,7 +45960,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="152" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0.11497</v>
       </c>
@@ -46253,7 +46262,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="153" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0.11497</v>
       </c>
@@ -46555,7 +46564,7 @@
         <v>25.21</v>
       </c>
     </row>
-    <row r="154" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0.11497</v>
       </c>
@@ -46857,7 +46866,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="155" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0.11497</v>
       </c>
@@ -47159,7 +47168,7 @@
         <v>25.61</v>
       </c>
     </row>
-    <row r="156" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0.11497</v>
       </c>
@@ -47461,7 +47470,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="157" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0.11497</v>
       </c>
@@ -47763,7 +47772,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="158" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0.11497</v>
       </c>
@@ -48065,7 +48074,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="159" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0.11497</v>
       </c>
